--- a/uploads/stockValuation.xlsx
+++ b/uploads/stockValuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rishi\Desktop\Freelance_Projects\priya_fils\backend\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE5B1724-FAF3-45CD-AC36-5440A09819D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6975F8CE-A3DB-4307-9B60-D533D6BE1F14}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22255" windowHeight="12646" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -358,14 +358,14 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection sqref="A1:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
-        <v>45474</v>
+        <v>45383</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -381,24 +381,24 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>185075</v>
+        <v>173900</v>
       </c>
       <c r="B4">
-        <v>103</v>
+        <v>99.441184588844166</v>
       </c>
       <c r="C4">
-        <v>19062725</v>
+        <v>17292822</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>3057</v>
+        <v>2456</v>
       </c>
       <c r="B5">
-        <v>215</v>
+        <v>239.37988599348535</v>
       </c>
       <c r="C5">
-        <v>657255</v>
+        <v>587917</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -406,51 +406,54 @@
         <v>45</v>
       </c>
       <c r="B6">
-        <v>2158</v>
+        <v>2243.6666666666665</v>
       </c>
       <c r="C6">
-        <v>96247</v>
+        <v>100965</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>188177</v>
+        <v>176401</v>
       </c>
       <c r="B7">
-        <v>105.30631798785187</v>
+        <v>101.93651963424243</v>
       </c>
       <c r="C7">
-        <v>19816227</v>
+        <v>17981704</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>51684</v>
+        <v>43702</v>
       </c>
       <c r="B9">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C9">
-        <v>8372808</v>
+        <v>7167128</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>64365</v>
+        <v>63143</v>
       </c>
       <c r="B10">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C10">
-        <v>10427130</v>
+        <v>10355452</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>116049</v>
+        <v>106845</v>
+      </c>
+      <c r="B11">
+        <v>164</v>
       </c>
       <c r="C11">
-        <v>18800002</v>
+        <v>17522580</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -460,24 +463,24 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>218102</v>
+        <v>286265</v>
       </c>
       <c r="B13">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C13">
-        <v>48854738</v>
+        <v>65268420</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>933</v>
+        <v>1576</v>
       </c>
       <c r="B14">
-        <v>223.90353697749197</v>
+        <v>300.32868020304568</v>
       </c>
       <c r="C14">
-        <v>208902</v>
+        <v>473318</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -487,10 +490,13 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>219035</v>
+        <v>287841</v>
+      </c>
+      <c r="B16">
+        <v>228.39601724563212</v>
       </c>
       <c r="C16">
-        <v>49063640</v>
+        <v>65741738</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -500,24 +506,24 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>523261</v>
+        <v>571087</v>
       </c>
       <c r="B21">
-        <v>167.56431111816093</v>
+        <v>177.28651151225645</v>
       </c>
       <c r="C21">
-        <v>87679869</v>
+        <v>101246022</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>335084</v>
+        <v>394686</v>
       </c>
       <c r="B22">
-        <v>202.52725286793759</v>
+        <v>210.96344435830002</v>
       </c>
       <c r="C22">
-        <v>67863642</v>
+        <v>83264318</v>
       </c>
     </row>
   </sheetData>

--- a/uploads/stockValuation.xlsx
+++ b/uploads/stockValuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rishi\Desktop\Freelance_Projects\priya_fils\backend\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6975F8CE-A3DB-4307-9B60-D533D6BE1F14}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D10A63-6126-4ADA-B835-CB651E0B3001}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22255" windowHeight="12646" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>QTY IN KGS.</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>BASIC VALUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -358,17 +355,17 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C22"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
-        <v>45383</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>45352</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -381,149 +378,139 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>173900</v>
+        <v>163575</v>
       </c>
       <c r="B4">
-        <v>99.441184588844166</v>
+        <v>100.77244688980591</v>
       </c>
       <c r="C4">
-        <v>17292822</v>
+        <v>16483853</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>2456</v>
+        <v>2645</v>
       </c>
       <c r="B5">
-        <v>239.37988599348535</v>
+        <v>236.51228733459357</v>
       </c>
       <c r="C5">
-        <v>587917</v>
+        <v>625575</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B6">
-        <v>2243.6666666666665</v>
+        <v>2247.3478260869565</v>
       </c>
       <c r="C6">
-        <v>100965</v>
+        <v>103378</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>176401</v>
+        <v>166266</v>
       </c>
       <c r="B7">
-        <v>101.93651963424243</v>
+        <v>103.52571181119411</v>
       </c>
       <c r="C7">
-        <v>17981704</v>
+        <v>17212806</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>43702</v>
+        <v>33018</v>
       </c>
       <c r="B9">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C9">
-        <v>7167128</v>
+        <v>5447970</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>63143</v>
+        <v>65057</v>
       </c>
       <c r="B10">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C10">
-        <v>10355452</v>
+        <v>10734405</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>106845</v>
+        <v>98075</v>
       </c>
       <c r="B11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C11">
-        <v>17522580</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>3</v>
+        <v>16182375</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>286265</v>
+        <v>294635</v>
       </c>
       <c r="B13">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C13">
-        <v>65268420</v>
+        <v>67471415</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>1576</v>
+        <v>848</v>
       </c>
       <c r="B14">
-        <v>300.32868020304568</v>
+        <v>218.00943396226415</v>
       </c>
       <c r="C14">
-        <v>473318</v>
+        <v>184872</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B15">
+      <c r="A15">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>287841</v>
+        <v>295483</v>
       </c>
       <c r="B16">
-        <v>228.39601724563212</v>
+        <v>228.96845842231195</v>
       </c>
       <c r="C16">
-        <v>65741738</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C19">
-        <v>0</v>
+        <v>67656287</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>571087</v>
+        <v>559824</v>
       </c>
       <c r="B21">
-        <v>177.28651151225645</v>
+        <v>180.50578038812199</v>
       </c>
       <c r="C21">
-        <v>101246022</v>
+        <v>101051468</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>394686</v>
+        <v>393558</v>
       </c>
       <c r="B22">
-        <v>210.96344435830002</v>
+        <v>213.02746228001971</v>
       </c>
       <c r="C22">
-        <v>83264318</v>
+        <v>83838662</v>
       </c>
     </row>
   </sheetData>

--- a/uploads/stockValuation.xlsx
+++ b/uploads/stockValuation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rishi\Desktop\Freelance_Projects\priya_fils\backend\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D10A63-6126-4ADA-B835-CB651E0B3001}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE0DC3CF-EC5A-425A-B2ED-A73FE94BFCB0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22255" windowHeight="12646" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>QTY IN KGS.</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>BASIC VALUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -354,15 +357,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="24.77734375" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
-        <v>45352</v>
+        <v>45383</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -378,139 +379,149 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>163575</v>
+        <v>173900</v>
       </c>
       <c r="B4">
-        <v>100.77244688980591</v>
+        <v>99.441184588844166</v>
       </c>
       <c r="C4">
-        <v>16483853</v>
+        <v>17292822</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>2645</v>
+        <v>2456</v>
       </c>
       <c r="B5">
-        <v>236.51228733459357</v>
+        <v>239.37988599348535</v>
       </c>
       <c r="C5">
-        <v>625575</v>
+        <v>587917</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6">
-        <v>2247.3478260869565</v>
+        <v>2243.6666666666665</v>
       </c>
       <c r="C6">
-        <v>103378</v>
+        <v>100965</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>166266</v>
+        <v>176401</v>
       </c>
       <c r="B7">
-        <v>103.52571181119411</v>
+        <v>101.93651963424243</v>
       </c>
       <c r="C7">
-        <v>17212806</v>
+        <v>17981704</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>33018</v>
+        <v>43702</v>
       </c>
       <c r="B9">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C9">
-        <v>5447970</v>
+        <v>7167128</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>65057</v>
+        <v>63143</v>
       </c>
       <c r="B10">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C10">
-        <v>10734405</v>
+        <v>10355452</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>98075</v>
+        <v>106845</v>
       </c>
       <c r="B11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C11">
-        <v>16182375</v>
+        <v>17522580</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>294635</v>
+        <v>286265</v>
       </c>
       <c r="B13">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C13">
-        <v>67471415</v>
+        <v>65268420</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>848</v>
+        <v>1576</v>
       </c>
       <c r="B14">
-        <v>218.00943396226415</v>
+        <v>300.32868020304568</v>
       </c>
       <c r="C14">
-        <v>184872</v>
+        <v>473318</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="B15">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>295483</v>
+        <v>287841</v>
       </c>
       <c r="B16">
-        <v>228.96845842231195</v>
+        <v>228.39601724563212</v>
       </c>
       <c r="C16">
-        <v>67656287</v>
+        <v>65741738</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>559824</v>
+        <v>571087</v>
       </c>
       <c r="B21">
-        <v>180.50578038812199</v>
+        <v>177.28651151225645</v>
       </c>
       <c r="C21">
-        <v>101051468</v>
+        <v>101246022</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>393558</v>
+        <v>394686</v>
       </c>
       <c r="B22">
-        <v>213.02746228001971</v>
+        <v>210.96344435830002</v>
       </c>
       <c r="C22">
-        <v>83838662</v>
+        <v>83264318</v>
       </c>
     </row>
   </sheetData>

--- a/uploads/stockValuation.xlsx
+++ b/uploads/stockValuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rishi\Desktop\Freelance_Projects\priya_fils\backend\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE0DC3CF-EC5A-425A-B2ED-A73FE94BFCB0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F8E4CEC-9EB8-4980-91BD-CA25AD047FEA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22255" windowHeight="12646" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>QTY IN KGS.</t>
   </si>
@@ -37,6 +37,60 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>RAW MATERIALS:</t>
+  </si>
+  <si>
+    <t>HDPE Granules</t>
+  </si>
+  <si>
+    <t>Master Batches</t>
+  </si>
+  <si>
+    <t>Colour Pigments</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Work in Progress</t>
+  </si>
+  <si>
+    <t>HDPE Tape - Factory</t>
+  </si>
+  <si>
+    <t>HDPE Tape - Job Work</t>
+  </si>
+  <si>
+    <t>FINISHED GOODS:</t>
+  </si>
+  <si>
+    <t>HDPE Fishnet Fabrics</t>
+  </si>
+  <si>
+    <t>Shadenet Fabrics &amp; Weed Mat</t>
+  </si>
+  <si>
+    <t>PP Fabric &amp; Sacks</t>
+  </si>
+  <si>
+    <t>Consumbles and Thread</t>
+  </si>
+  <si>
+    <t>Packing Materials</t>
+  </si>
+  <si>
+    <t>Seconds</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>SFG/FG</t>
+  </si>
+  <si>
+    <t>Diff in SFG/FG</t>
   </si>
 </sst>
 </file>
@@ -72,9 +126,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -355,18 +412,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.77734375" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
-        <v>45383</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>45413</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -376,152 +435,228 @@
       <c r="C2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>173900</v>
+        <v>191250</v>
       </c>
       <c r="B4">
-        <v>99.441184588844166</v>
+        <v>98.297767320261443</v>
       </c>
       <c r="C4">
-        <v>17292822</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>18799448</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>2456</v>
+        <v>2626.0000000000005</v>
       </c>
       <c r="B5">
-        <v>239.37988599348535</v>
+        <v>217.47220106626042</v>
       </c>
       <c r="C5">
-        <v>587917</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>571082</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>45</v>
       </c>
       <c r="B6">
-        <v>2243.6666666666665</v>
+        <v>2243.6888888888889</v>
       </c>
       <c r="C6">
-        <v>100965</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>100966</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>176401</v>
+        <v>193921</v>
       </c>
       <c r="B7">
-        <v>101.93651963424243</v>
+        <v>100.40942445635078</v>
       </c>
       <c r="C7">
-        <v>17981704</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>19471496</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F8" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>43702</v>
+        <v>47620</v>
       </c>
       <c r="B9">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C9">
-        <v>7167128</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7762060</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>63143</v>
+        <v>57609</v>
       </c>
       <c r="B10">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C10">
-        <v>10355452</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9390267</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>106845</v>
-      </c>
-      <c r="B11">
-        <v>164</v>
+        <v>105229</v>
       </c>
       <c r="C11">
-        <v>17522580</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>17152311</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F12" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>286265</v>
+        <v>263759</v>
       </c>
       <c r="B13">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="C13">
-        <v>65268420</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+        <v>57763289</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>1576</v>
+        <v>1056</v>
       </c>
       <c r="B14">
-        <v>300.32868020304568</v>
+        <v>200.96022727272728</v>
       </c>
       <c r="C14">
-        <v>473318</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+        <v>212214</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F15" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>287841</v>
-      </c>
-      <c r="B16">
-        <v>228.39601724563212</v>
+        <v>264815</v>
       </c>
       <c r="C16">
-        <v>65741738</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+        <v>57975503</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F17" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F18" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F19" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F20" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>571087</v>
+        <v>563965</v>
       </c>
       <c r="B21">
-        <v>177.28651151225645</v>
+        <v>167.73968242710097</v>
       </c>
       <c r="C21">
-        <v>101246022</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+        <v>94599310</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>394686</v>
+        <v>370044</v>
       </c>
       <c r="B22">
-        <v>210.96344435830002</v>
+        <v>203.02400255104797</v>
       </c>
       <c r="C22">
-        <v>83264318</v>
+        <v>75127814</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>24642</v>
+      </c>
+      <c r="C23">
+        <v>8136504</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/uploads/stockValuation.xlsx
+++ b/uploads/stockValuation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rishi\Desktop\Freelance_Projects\priya_fils\backend\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F8E4CEC-9EB8-4980-91BD-CA25AD047FEA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400E18AD-6B73-4BDE-A29F-12D70620E27D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22255" windowHeight="12646" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -97,13 +97,32 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -123,8 +142,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -133,8 +156,12 @@
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="Percent 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -415,14 +442,14 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.77734375" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
-        <v>45413</v>
+        <v>45658</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -444,13 +471,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>191250</v>
+        <v>196685</v>
       </c>
       <c r="B4">
-        <v>98.297767320261443</v>
+        <v>98.53</v>
       </c>
       <c r="C4">
-        <v>18799448</v>
+        <v>19380225</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>5</v>
@@ -458,13 +485,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>2626.0000000000005</v>
+        <v>2815</v>
       </c>
       <c r="B5">
-        <v>217.47220106626042</v>
+        <v>236.5</v>
       </c>
       <c r="C5">
-        <v>571082</v>
+        <v>665754</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>6</v>
@@ -472,13 +499,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="B6">
-        <v>2243.6888888888889</v>
+        <v>1181.07</v>
       </c>
       <c r="C6">
-        <v>100966</v>
+        <v>86218</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>7</v>
@@ -486,13 +513,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>193921</v>
+        <v>199573</v>
       </c>
       <c r="B7">
-        <v>100.40942445635078</v>
+        <v>100.88</v>
       </c>
       <c r="C7">
-        <v>19471496</v>
+        <v>20132197</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>8</v>
@@ -505,13 +532,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>47620</v>
+        <v>39862</v>
       </c>
       <c r="B9">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C9">
-        <v>7762060</v>
+        <v>6178610</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
@@ -519,13 +546,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>57609</v>
+        <v>80127</v>
       </c>
       <c r="B10">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C10">
-        <v>9390267</v>
+        <v>12419685</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>11</v>
@@ -533,10 +560,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>105229</v>
+        <v>119989</v>
       </c>
       <c r="C11">
-        <v>17152311</v>
+        <v>18598295</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>8</v>
@@ -552,13 +579,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>263759</v>
+        <v>256633</v>
       </c>
       <c r="B13">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C13">
-        <v>57763289</v>
+        <v>56459260</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>13</v>
@@ -566,32 +593,29 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>1056</v>
+        <v>959</v>
       </c>
       <c r="B14">
-        <v>200.96022727272728</v>
+        <v>220</v>
       </c>
       <c r="C14">
-        <v>212214</v>
+        <v>188080</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B15">
-        <v>0</v>
-      </c>
       <c r="F15" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>264815</v>
+        <v>257592</v>
       </c>
       <c r="C16">
-        <v>57975503</v>
+        <v>56647340</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>8</v>
@@ -608,9 +632,6 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C19">
-        <v>0</v>
-      </c>
       <c r="F19" s="2" t="s">
         <v>18</v>
       </c>
@@ -622,13 +643,13 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>563965</v>
+        <v>577154</v>
       </c>
       <c r="B21">
-        <v>167.73968242710097</v>
+        <v>165.26</v>
       </c>
       <c r="C21">
-        <v>94599310</v>
+        <v>95377832</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>19</v>
@@ -636,13 +657,13 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>370044</v>
+        <v>377581</v>
       </c>
       <c r="B22">
-        <v>203.02400255104797</v>
+        <v>199.28</v>
       </c>
       <c r="C22">
-        <v>75127814</v>
+        <v>75245635</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>20</v>
@@ -650,10 +671,13 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>24642</v>
+        <v>9510</v>
+      </c>
+      <c r="B23">
+        <v>239.16</v>
       </c>
       <c r="C23">
-        <v>8136504</v>
+        <v>2274381</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>21</v>
